--- a/GIS_data/Bedding/Bedding_all_crop_WGS.xlsx
+++ b/GIS_data/Bedding/Bedding_all_crop_WGS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="53">
   <si>
     <t>Day</t>
   </si>
@@ -500,9 +500,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P114"/>
+  <dimension ref="A1:P115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -2580,6 +2580,9 @@
       <c r="O57">
         <v>34</v>
       </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D58">
@@ -4336,6 +4339,38 @@
         <v>16</v>
       </c>
       <c r="P114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>-5.18208940122428</v>
+      </c>
+      <c r="E115">
+        <v>42.875808923719902</v>
+      </c>
+      <c r="G115">
+        <v>214</v>
+      </c>
+      <c r="H115">
+        <v>27</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="L115" t="s">
+        <v>24</v>
+      </c>
+      <c r="M115" t="s">
+        <v>49</v>
+      </c>
+      <c r="N115">
+        <v>124</v>
+      </c>
+      <c r="O115">
+        <v>27</v>
+      </c>
+      <c r="P115">
         <v>1</v>
       </c>
     </row>
